--- a/Test_Project_MIS_testing.xlsx
+++ b/Test_Project_MIS_testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raishaa/Downloads/testcaseprioritization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7C5F05-EC58-B649-AD3B-D7BD230A4736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F364AE-E280-1A41-B9F5-EA726A5A0F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Project_MIS" sheetId="1" r:id="rId1"/>
@@ -3177,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A640" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B655" sqref="B655"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
